--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Itga2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H2">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I2">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J2">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65732958697911</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N2">
-        <v>1.65732958697911</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O2">
-        <v>0.3967744199406166</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P2">
-        <v>0.3967744199406166</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q2">
-        <v>11.41486187416074</v>
+        <v>46.75572483725045</v>
       </c>
       <c r="R2">
-        <v>11.41486187416074</v>
+        <v>420.801523535254</v>
       </c>
       <c r="S2">
-        <v>0.001148911874021474</v>
+        <v>0.003164110458104651</v>
       </c>
       <c r="T2">
-        <v>0.001148911874021474</v>
+        <v>0.003473356122031255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H3">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I3">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J3">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01028305160397</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N3">
-        <v>1.01028305160397</v>
+        <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.2418676857791798</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P3">
-        <v>0.2418676857791798</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q3">
-        <v>6.958327165862806</v>
+        <v>16.40888339396922</v>
       </c>
       <c r="R3">
-        <v>6.958327165862806</v>
+        <v>147.679950545723</v>
       </c>
       <c r="S3">
-        <v>0.0007003593028385855</v>
+        <v>0.001110441977605987</v>
       </c>
       <c r="T3">
-        <v>0.0007003593028385855</v>
+        <v>0.001218971490454422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H4">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I4">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J4">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.155290287716967</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N4">
-        <v>0.155290287716967</v>
+        <v>0.06775</v>
       </c>
       <c r="O4">
-        <v>0.03717740533650878</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P4">
-        <v>0.03717740533650878</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q4">
-        <v>1.0695622636647</v>
+        <v>0.3470005121944444</v>
       </c>
       <c r="R4">
-        <v>1.0695622636647</v>
+        <v>3.12300460975</v>
       </c>
       <c r="S4">
-        <v>0.0001076520065048976</v>
+        <v>2.348264203846485E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001076520065048976</v>
+        <v>2.577772791618285E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H5">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I5">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J5">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35410421853342</v>
+        <v>0.160044</v>
       </c>
       <c r="N5">
-        <v>1.35410421853342</v>
+        <v>0.480132</v>
       </c>
       <c r="O5">
-        <v>0.3241804889436948</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P5">
-        <v>0.3241804889436948</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q5">
-        <v>9.326396354240785</v>
+        <v>2.459129888132</v>
       </c>
       <c r="R5">
-        <v>9.326396354240785</v>
+        <v>22.132168993188</v>
       </c>
       <c r="S5">
-        <v>0.0009387067168524665</v>
+        <v>0.000166417238187634</v>
       </c>
       <c r="T5">
-        <v>0.0009387067168524665</v>
+        <v>0.0001826820968243942</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2310.19956376667</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H6">
-        <v>2310.19956376667</v>
+        <v>46.096009</v>
       </c>
       <c r="I6">
-        <v>0.9712494209333227</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J6">
-        <v>0.9712494209333227</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65732958697911</v>
+        <v>1.3872175</v>
       </c>
       <c r="N6">
-        <v>1.65732958697911</v>
+        <v>2.774435</v>
       </c>
       <c r="O6">
-        <v>0.3967744199406166</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P6">
-        <v>0.3967744199406166</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q6">
-        <v>3828.762088856735</v>
+        <v>21.31506345498583</v>
       </c>
       <c r="R6">
-        <v>3828.762088856735</v>
+        <v>127.890380729915</v>
       </c>
       <c r="S6">
-        <v>0.3853669256084789</v>
+        <v>0.001442458980752507</v>
       </c>
       <c r="T6">
-        <v>0.3853669256084789</v>
+        <v>0.001055625543190181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H7">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J7">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01028305160397</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N7">
-        <v>1.01028305160397</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O7">
-        <v>0.2418676857791798</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P7">
-        <v>0.2418676857791798</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q7">
-        <v>2333.955465096352</v>
+        <v>7662.283770711311</v>
       </c>
       <c r="R7">
-        <v>2333.955465096352</v>
+        <v>68960.5539364018</v>
       </c>
       <c r="S7">
-        <v>0.2349138497555112</v>
+        <v>0.5185314161263451</v>
       </c>
       <c r="T7">
-        <v>0.2349138497555112</v>
+        <v>0.5692103017626094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H8">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J8">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.155290287716967</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N8">
-        <v>0.155290287716967</v>
+        <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.03717740533650878</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P8">
-        <v>0.03717740533650878</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q8">
-        <v>358.7515549409379</v>
+        <v>2689.072222979111</v>
       </c>
       <c r="R8">
-        <v>358.7515549409379</v>
+        <v>24201.650006812</v>
       </c>
       <c r="S8">
-        <v>0.03610853340488757</v>
+        <v>0.1819781764253211</v>
       </c>
       <c r="T8">
-        <v>0.03610853340488757</v>
+        <v>0.1997638898932735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H9">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J9">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35410421853342</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N9">
-        <v>1.35410421853342</v>
+        <v>0.06775</v>
       </c>
       <c r="O9">
-        <v>0.3241804889436948</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P9">
-        <v>0.3241804889436948</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q9">
-        <v>3128.250974950514</v>
+        <v>56.86611430516666</v>
       </c>
       <c r="R9">
-        <v>3128.250974950514</v>
+        <v>511.7950287465</v>
       </c>
       <c r="S9">
-        <v>0.314860112164445</v>
+        <v>0.003848313069919536</v>
       </c>
       <c r="T9">
-        <v>0.314860112164445</v>
+        <v>0.004224429563342324</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.49820118108</v>
+        <v>2518.056722</v>
       </c>
       <c r="H10">
-        <v>61.49820118108</v>
+        <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.02585494916645983</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J10">
-        <v>0.02585494916645983</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.65732958697911</v>
+        <v>0.160044</v>
       </c>
       <c r="N10">
-        <v>1.65732958697911</v>
+        <v>0.480132</v>
       </c>
       <c r="O10">
-        <v>0.3967744199406166</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P10">
-        <v>0.3967744199406166</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q10">
-        <v>101.9227883633975</v>
+        <v>402.999870015768</v>
       </c>
       <c r="R10">
-        <v>101.9227883633975</v>
+        <v>3626.998830141912</v>
       </c>
       <c r="S10">
-        <v>0.01025858245811623</v>
+        <v>0.02727229890607537</v>
       </c>
       <c r="T10">
-        <v>0.01025858245811623</v>
+        <v>0.02993776848865943</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.49820118108</v>
+        <v>2518.056722</v>
       </c>
       <c r="H11">
-        <v>61.49820118108</v>
+        <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.02585494916645983</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J11">
-        <v>0.02585494916645983</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.01028305160397</v>
+        <v>1.3872175</v>
       </c>
       <c r="N11">
-        <v>1.01028305160397</v>
+        <v>2.774435</v>
       </c>
       <c r="O11">
-        <v>0.2418676857791798</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P11">
-        <v>0.2418676857791798</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q11">
-        <v>62.13059035737638</v>
+        <v>3493.092350751035</v>
       </c>
       <c r="R11">
-        <v>62.13059035737638</v>
+        <v>20958.55410450621</v>
       </c>
       <c r="S11">
-        <v>0.006253476720829974</v>
+        <v>0.2363888075013035</v>
       </c>
       <c r="T11">
-        <v>0.006253476720829974</v>
+        <v>0.17299491122615</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H12">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I12">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J12">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.155290287716967</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N12">
-        <v>0.155290287716967</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O12">
-        <v>0.03717740533650878</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P12">
-        <v>0.03717740533650878</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q12">
-        <v>9.550073355485834</v>
+        <v>4.628670808551779</v>
       </c>
       <c r="R12">
-        <v>9.550073355485834</v>
+        <v>41.65803727696601</v>
       </c>
       <c r="S12">
-        <v>0.0009612199251163068</v>
+        <v>0.0003132370584231468</v>
       </c>
       <c r="T12">
-        <v>0.0009612199251163068</v>
+        <v>0.0003438514138260575</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.563361</v>
+      </c>
+      <c r="I13">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J13">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.203747</v>
+      </c>
+      <c r="O13">
+        <v>0.1879902916822836</v>
+      </c>
+      <c r="P13">
+        <v>0.2046485853922773</v>
+      </c>
+      <c r="Q13">
+        <v>1.624428234851889</v>
+      </c>
+      <c r="R13">
+        <v>14.619854113667</v>
+      </c>
+      <c r="S13">
+        <v>0.0001099302894827627</v>
+      </c>
+      <c r="T13">
+        <v>0.0001206743724744496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H14">
+        <v>4.563361</v>
+      </c>
+      <c r="I14">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J14">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02258333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.06775</v>
+      </c>
+      <c r="O14">
+        <v>0.003975451950942043</v>
+      </c>
+      <c r="P14">
+        <v>0.004327726771285868</v>
+      </c>
+      <c r="Q14">
+        <v>0.03435196752777778</v>
+      </c>
+      <c r="R14">
+        <v>0.3091677077500001</v>
+      </c>
+      <c r="S14">
+        <v>2.324708259565183E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.551914597233789E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H15">
+        <v>4.563361</v>
+      </c>
+      <c r="I15">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J15">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.160044</v>
+      </c>
+      <c r="N15">
+        <v>0.480132</v>
+      </c>
+      <c r="O15">
+        <v>0.02817330916767092</v>
+      </c>
+      <c r="P15">
+        <v>0.03066981712400039</v>
+      </c>
+      <c r="Q15">
+        <v>0.243446182628</v>
+      </c>
+      <c r="R15">
+        <v>2.191015643652</v>
+      </c>
+      <c r="S15">
+        <v>1.647478710083469E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.808495733430337E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.563361</v>
+      </c>
+      <c r="I16">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J16">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.3872175</v>
+      </c>
+      <c r="N16">
+        <v>2.774435</v>
+      </c>
+      <c r="O16">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="P16">
+        <v>0.1772250424308857</v>
+      </c>
+      <c r="Q16">
+        <v>2.110124746005833</v>
+      </c>
+      <c r="R16">
+        <v>12.660748476035</v>
+      </c>
+      <c r="S16">
+        <v>0.0001427989363865696</v>
+      </c>
+      <c r="T16">
+        <v>0.0001045036335878425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.449807</v>
+      </c>
+      <c r="H17">
+        <v>4.349421</v>
+      </c>
+      <c r="I17">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J17">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.042935333333334</v>
+      </c>
+      <c r="N17">
+        <v>9.128806000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.5356624298519768</v>
+      </c>
+      <c r="P17">
+        <v>0.5831288282815508</v>
+      </c>
+      <c r="Q17">
+        <v>4.411668946814001</v>
+      </c>
+      <c r="R17">
+        <v>39.70502052132601</v>
+      </c>
+      <c r="S17">
+        <v>0.0002985518436704573</v>
+      </c>
+      <c r="T17">
+        <v>0.0003277309334446135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.449807</v>
+      </c>
+      <c r="H18">
+        <v>4.349421</v>
+      </c>
+      <c r="I18">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J18">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.203747</v>
+      </c>
+      <c r="O18">
+        <v>0.1879902916822836</v>
+      </c>
+      <c r="P18">
+        <v>0.2046485853922773</v>
+      </c>
+      <c r="Q18">
+        <v>1.548271608943</v>
+      </c>
+      <c r="R18">
+        <v>13.934444480487</v>
+      </c>
+      <c r="S18">
+        <v>0.0001047765253751363</v>
+      </c>
+      <c r="T18">
+        <v>0.0001150169030681975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>61.49820118108</v>
-      </c>
-      <c r="H13">
-        <v>61.49820118108</v>
-      </c>
-      <c r="I13">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="J13">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.35410421853342</v>
-      </c>
-      <c r="N13">
-        <v>1.35410421853342</v>
-      </c>
-      <c r="O13">
-        <v>0.3241804889436948</v>
-      </c>
-      <c r="P13">
-        <v>0.3241804889436948</v>
-      </c>
-      <c r="Q13">
-        <v>83.27497365151739</v>
-      </c>
-      <c r="R13">
-        <v>83.27497365151739</v>
-      </c>
-      <c r="S13">
-        <v>0.008381670062397322</v>
-      </c>
-      <c r="T13">
-        <v>0.008381670062397322</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.449807</v>
+      </c>
+      <c r="H19">
+        <v>4.349421</v>
+      </c>
+      <c r="I19">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J19">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02258333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.06775</v>
+      </c>
+      <c r="O19">
+        <v>0.003975451950942043</v>
+      </c>
+      <c r="P19">
+        <v>0.004327726771285868</v>
+      </c>
+      <c r="Q19">
+        <v>0.03274147475</v>
+      </c>
+      <c r="R19">
+        <v>0.29467327275</v>
+      </c>
+      <c r="S19">
+        <v>2.215721027336267E-06</v>
+      </c>
+      <c r="T19">
+        <v>2.43227545210979E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.449807</v>
+      </c>
+      <c r="H20">
+        <v>4.349421</v>
+      </c>
+      <c r="I20">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J20">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.160044</v>
+      </c>
+      <c r="N20">
+        <v>0.480132</v>
+      </c>
+      <c r="O20">
+        <v>0.02817330916767092</v>
+      </c>
+      <c r="P20">
+        <v>0.03066981712400039</v>
+      </c>
+      <c r="Q20">
+        <v>0.232032911508</v>
+      </c>
+      <c r="R20">
+        <v>2.088296203572</v>
+      </c>
+      <c r="S20">
+        <v>1.570241429220689E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.723709634497974E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.449807</v>
+      </c>
+      <c r="H21">
+        <v>4.349421</v>
+      </c>
+      <c r="I21">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J21">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.3872175</v>
+      </c>
+      <c r="N21">
+        <v>2.774435</v>
+      </c>
+      <c r="O21">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="P21">
+        <v>0.1772250424308857</v>
+      </c>
+      <c r="Q21">
+        <v>2.0111976420225</v>
+      </c>
+      <c r="R21">
+        <v>12.067185852135</v>
+      </c>
+      <c r="S21">
+        <v>0.0001361042207043032</v>
+      </c>
+      <c r="T21">
+        <v>9.960428256788523E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>64.854191</v>
+      </c>
+      <c r="H22">
+        <v>129.708382</v>
+      </c>
+      <c r="I22">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J22">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.042935333333334</v>
+      </c>
+      <c r="N22">
+        <v>9.128806000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.5356624298519768</v>
+      </c>
+      <c r="P22">
+        <v>0.5831288282815508</v>
+      </c>
+      <c r="Q22">
+        <v>197.3471093086487</v>
+      </c>
+      <c r="R22">
+        <v>1184.082655851892</v>
+      </c>
+      <c r="S22">
+        <v>0.01335511436543345</v>
+      </c>
+      <c r="T22">
+        <v>0.009773588049639365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>64.854191</v>
+      </c>
+      <c r="H23">
+        <v>129.708382</v>
+      </c>
+      <c r="I23">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J23">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.203747</v>
+      </c>
+      <c r="O23">
+        <v>0.1879902916822836</v>
+      </c>
+      <c r="P23">
+        <v>0.2046485853922773</v>
+      </c>
+      <c r="Q23">
+        <v>69.25880661789233</v>
+      </c>
+      <c r="R23">
+        <v>415.552839707354</v>
+      </c>
+      <c r="S23">
+        <v>0.004686966464498678</v>
+      </c>
+      <c r="T23">
+        <v>0.0034300327330067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>64.854191</v>
+      </c>
+      <c r="H24">
+        <v>129.708382</v>
+      </c>
+      <c r="I24">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J24">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02258333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.06775</v>
+      </c>
+      <c r="O24">
+        <v>0.003975451950942043</v>
+      </c>
+      <c r="P24">
+        <v>0.004327726771285868</v>
+      </c>
+      <c r="Q24">
+        <v>1.464623813416667</v>
+      </c>
+      <c r="R24">
+        <v>8.7877428805</v>
+      </c>
+      <c r="S24">
+        <v>9.91158096971407E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.25352899780176E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>64.854191</v>
+      </c>
+      <c r="H25">
+        <v>129.708382</v>
+      </c>
+      <c r="I25">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J25">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.160044</v>
+      </c>
+      <c r="N25">
+        <v>0.480132</v>
+      </c>
+      <c r="O25">
+        <v>0.02817330916767092</v>
+      </c>
+      <c r="P25">
+        <v>0.03066981712400039</v>
+      </c>
+      <c r="Q25">
+        <v>10.379524144404</v>
+      </c>
+      <c r="R25">
+        <v>62.277144866424</v>
+      </c>
+      <c r="S25">
+        <v>0.0007024158220148717</v>
+      </c>
+      <c r="T25">
+        <v>0.0005140444848372774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>64.854191</v>
+      </c>
+      <c r="H26">
+        <v>129.708382</v>
+      </c>
+      <c r="I26">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J26">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.3872175</v>
+      </c>
+      <c r="N26">
+        <v>2.774435</v>
+      </c>
+      <c r="O26">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="P26">
+        <v>0.1772250424308857</v>
+      </c>
+      <c r="Q26">
+        <v>89.9668687035425</v>
+      </c>
+      <c r="R26">
+        <v>359.86747481417</v>
+      </c>
+      <c r="S26">
+        <v>0.006088347707979776</v>
+      </c>
+      <c r="T26">
+        <v>0.002970397745389834</v>
       </c>
     </row>
   </sheetData>
